--- a/ig/branch/dev/StructureDefinition-Measurement.xlsx
+++ b/ig/branch/dev/StructureDefinition-Measurement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1305,7 +1309,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1535,10 +1539,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2014,19 +2018,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2037,10 +2041,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2051,7 +2055,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2060,19 +2064,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2122,13 +2126,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2157,10 +2161,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2171,7 +2175,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2180,16 +2184,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2240,19 +2244,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2275,10 +2279,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2289,28 +2293,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2360,19 +2364,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -2395,10 +2399,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2409,7 +2413,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -2421,16 +2425,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2456,13 +2460,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -2480,19 +2484,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2515,21 +2519,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2541,16 +2545,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2600,19 +2604,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -2624,7 +2628,7 @@
         <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>82</v>
@@ -2635,14 +2639,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2661,16 +2665,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2720,7 +2724,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2744,7 +2748,7 @@
         <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>82</v>
@@ -2755,14 +2759,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2781,16 +2785,16 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2840,7 +2844,7 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2852,7 +2856,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -2864,7 +2868,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -2875,14 +2879,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2895,25 +2899,25 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>82</v>
@@ -2962,7 +2966,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2974,7 +2978,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -2986,7 +2990,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -2997,10 +3001,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3020,20 +3024,20 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3082,7 +3086,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3094,22 +3098,22 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>82</v>
@@ -3117,14 +3121,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3140,20 +3144,20 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3202,7 +3206,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3214,19 +3218,19 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>82</v>
@@ -3237,14 +3241,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3260,19 +3264,19 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3322,7 +3326,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3334,19 +3338,19 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3357,10 +3361,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3368,34 +3372,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -3420,13 +3424,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3444,34 +3448,34 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3479,10 +3483,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3505,19 +3509,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3542,13 +3546,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3566,7 +3570,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3578,7 +3582,7 @@
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3590,10 +3594,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3601,45 +3605,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3664,13 +3668,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3688,45 +3692,45 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3737,7 +3741,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -3746,22 +3750,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3810,34 +3814,34 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3845,10 +3849,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3868,19 +3872,19 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3930,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3942,7 +3946,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -3951,13 +3955,13 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -3965,21 +3969,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -3988,22 +3992,22 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4052,34 +4056,34 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4087,21 +4091,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4110,22 +4114,22 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4174,34 +4178,34 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4209,10 +4213,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4223,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4232,19 +4236,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4294,19 +4298,19 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
@@ -4315,13 +4319,13 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4329,10 +4333,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4352,20 +4356,20 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4414,7 +4418,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4426,22 +4430,22 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4449,10 +4453,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4463,7 +4467,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4472,22 +4476,22 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4536,45 +4540,45 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4585,7 +4589,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4597,19 +4601,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4634,13 +4638,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4658,19 +4662,19 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -4679,10 +4683,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4693,14 +4697,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4719,19 +4723,19 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4756,13 +4760,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4780,7 +4784,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4792,33 +4796,33 @@
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4841,19 +4845,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4902,7 +4906,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4914,7 +4918,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -4923,10 +4927,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4937,10 +4941,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4951,7 +4955,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4963,16 +4967,16 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4998,13 +5002,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5022,45 +5026,45 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5071,7 +5075,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5083,19 +5087,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5120,13 +5124,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5144,19 +5148,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5165,10 +5169,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5179,10 +5183,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5193,7 +5197,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5205,16 +5209,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5264,45 +5268,45 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5313,7 +5317,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5325,16 +5329,16 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5384,45 +5388,45 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5445,19 +5449,19 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5506,7 +5510,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5518,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5527,10 +5531,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5541,10 +5545,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5555,7 +5559,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5567,13 +5571,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5624,13 +5628,13 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
@@ -5648,7 +5652,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5659,14 +5663,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5685,16 +5689,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5744,7 +5748,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5756,7 +5760,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5768,7 +5772,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5779,14 +5783,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5799,25 +5803,25 @@
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5866,7 +5870,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5878,7 +5882,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5890,7 +5894,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5901,10 +5905,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5915,7 +5919,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5927,13 +5931,13 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5984,19 +5988,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6005,10 +6009,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6019,10 +6023,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6033,7 +6037,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6045,13 +6049,13 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6102,19 +6106,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6123,10 +6127,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6137,10 +6141,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6151,7 +6155,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6163,19 +6167,19 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6200,13 +6204,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6224,31 +6228,31 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6259,10 +6263,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6285,19 +6289,19 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6322,13 +6326,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6346,7 +6350,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6358,19 +6362,19 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6381,10 +6385,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6395,7 +6399,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6407,17 +6411,17 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6466,19 +6470,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6490,7 +6494,7 @@
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6501,10 +6505,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6515,7 +6519,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6527,13 +6531,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6584,19 +6588,19 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -6605,10 +6609,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6619,10 +6623,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6642,19 +6646,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6704,7 +6708,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6716,7 +6720,7 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -6725,10 +6729,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6739,10 +6743,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6762,19 +6766,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6824,7 +6828,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6836,7 +6840,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -6845,10 +6849,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6859,10 +6863,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6882,22 +6886,22 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6946,7 +6950,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6958,7 +6962,7 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -6967,10 +6971,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6981,10 +6985,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6995,7 +6999,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7007,13 +7011,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7064,13 +7068,13 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7088,7 +7092,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7099,14 +7103,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7125,16 +7129,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7184,7 +7188,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7196,7 +7200,7 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7208,7 +7212,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7219,14 +7223,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7239,25 +7243,25 @@
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7306,7 +7310,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7318,7 +7322,7 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7330,7 +7334,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7341,10 +7345,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7352,10 +7356,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7364,22 +7368,22 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7404,13 +7408,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7428,34 +7432,34 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7463,10 +7467,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7477,7 +7481,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7486,22 +7490,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7550,45 +7554,45 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7599,7 +7603,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7611,19 +7615,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7648,13 +7652,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7672,19 +7676,19 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -7693,10 +7697,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7707,14 +7711,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7733,19 +7737,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7770,13 +7774,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7794,7 +7798,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7806,33 +7810,33 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7858,16 +7862,16 @@
         <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7916,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7928,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -7937,10 +7941,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
